--- a/Angles_test.xlsx
+++ b/Angles_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projekte\_quaternions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{497D76E1-6828-4163-A66D-18E06C3FED86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62230CF4-C7CE-4085-90F2-E925B3D23355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30690" yWindow="2685" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -715,10 +715,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80DC9861-5EB9-43FA-927D-5FC45CF92821}">
-  <dimension ref="A5:M17"/>
+  <dimension ref="A5:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -789,8 +789,8 @@
         <v>0.81178217567868705</v>
       </c>
       <c r="I7" s="1">
-        <f>COS(G6)/SQRT(COS(2*G6))</f>
-        <v>1.4395912490363625</v>
+        <f>COS(G6)*E18</f>
+        <v>1.1596494317631663</v>
       </c>
       <c r="K7">
         <f>COS(K6)</f>
@@ -904,7 +904,7 @@
       <c r="H10" s="4"/>
       <c r="I10" s="4">
         <f>I9/I7</f>
-        <v>0.71935597392680384</v>
+        <v>0.89301002237592741</v>
       </c>
       <c r="K10" s="4">
         <f>TAN(K6)</f>
@@ -1020,7 +1020,7 @@
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C17">
         <f>1/COS(2*C6)</f>
         <v>1.9999999999999942</v>
@@ -1028,6 +1028,44 @@
       <c r="D17">
         <f>1/COS(2*D6)</f>
         <v>1.0203388449411928</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <f>SQRT(C17)</f>
+        <v>1.4142135623730929</v>
+      </c>
+      <c r="D18">
+        <f>SQRT(D17)</f>
+        <v>1.010118233149562</v>
+      </c>
+      <c r="E18">
+        <f>C18*D18</f>
+        <v>1.4285229049204564</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E21">
+        <f>E7/E7</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E22">
+        <f>E9/E7</f>
+        <v>0.57735026918962462</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E23">
+        <f>ASIN(E22)</f>
+        <v>0.61547970867038593</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E24">
+        <f>COS(E23)</f>
+        <v>0.81649658092772681</v>
       </c>
     </row>
   </sheetData>
